--- a/SGSST/SG-SST AÑO 2023/8_Reporte ARL Autoevaluacion/EstandaresMinimos (2) (1).xlsx
+++ b/SGSST/SG-SST AÑO 2023/8_Reporte ARL Autoevaluacion/EstandaresMinimos (2) (1).xlsx
@@ -1,23 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\8_Reporte ARL Autoevaluacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980133C2-A28F-4553-8223-B46D6ED3997D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estandares Minimos" sheetId="1" r:id="rId1"/>
     <sheet name="Ciclos" sheetId="2" r:id="rId2"/>
-    <sheet name="PLANEAR" sheetId="3" r:id="rId4"/>
-    <sheet name="HACER" sheetId="4" r:id="rId5"/>
-    <sheet name="VERIFICAR" sheetId="5" r:id="rId6"/>
-    <sheet name="ACTUAR" sheetId="6" r:id="rId7"/>
+    <sheet name="PLANEAR" sheetId="3" r:id="rId3"/>
+    <sheet name="HACER" sheetId="4" r:id="rId4"/>
+    <sheet name="VERIFICAR" sheetId="5" r:id="rId5"/>
+    <sheet name="ACTUAR" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Estandares Minimos'!$A$1:$J$72</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="125">
   <si>
     <t>Razón social: EXCAVACIONES CORREA MEJIA S.A.S. - Nit: 901245271</t>
   </si>
@@ -345,7 +363,7 @@
     <t>VERIFICAR</t>
   </si>
   <si>
-    <t xml:space="preserve">6 VERIFICACIÓN  DEL SG-SST (5%)</t>
+    <t>6 VERIFICACIÓN  DEL SG-SST (5%)</t>
   </si>
   <si>
     <t>Gestión y resultados del SG-SST. (5%)</t>
@@ -404,7 +422,7 @@
     <t>FIRMA DEL EMPLEADOR O CONTRATANTE</t>
   </si>
   <si>
-    <t xml:space="preserve">FIRMA DEL RESPONSABLE  DE LA EJECUCIÓN SG- SST</t>
+    <t>FIRMA DEL RESPONSABLE  DE LA EJECUCIÓN SG- SST</t>
   </si>
   <si>
     <t>PORCENTAJE DE CALIFICACION POR CICLO</t>
@@ -443,7 +461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -523,7 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8DBD6" tint="0"/>
+        <fgColor rgb="FFD8DBD6"/>
       </patternFill>
     </fill>
   </fills>
@@ -538,209 +556,295 @@
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="6" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="7" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="9" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="11" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="12" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="13" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="14" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" borderId="14" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -752,18 +856,114 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>PORCENTAJE DE CALIFICACION POR CICLO</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ciclos!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>PLANEAR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HACER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VERIFICAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ACTUAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ciclos!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE37-4E73-B122-D1ECD157E1DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -773,36 +973,7 @@
           <c:showBubbleSize val="0"/>
           <c:separator>
 </c:separator>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
-        <c:radarStyle val="standard"/>
-        <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Ciclos'!$A$3:$A$6</c:f>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ciclos'!$C$3:$C$6</c:f>
-            </c:numRef>
-          </c:val>
-        </ser>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:radarChart>
@@ -813,12 +984,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -828,6 +1003,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -835,6 +1013,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -845,7 +1025,11 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -857,22 +1041,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>RESULTADOS DE ÍTEMS DE ESTANDARES DEL CICLO ACTUAR</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -880,16 +1063,43 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'ACTUAR'!$D$3</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>ACTUAR!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acciones preventivas y correctivas con base en los resultados del SG-SST. (10%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACTUAR'!$F$3</c:f>
+              <c:f>ACTUAR!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DAA-4A89-BFD7-2A90085680BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -900,12 +1110,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -915,6 +1129,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -923,10 +1140,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -944,7 +1162,11 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -956,22 +1178,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>PORCENTAJE DE CALIFICACION POR CICLO</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -979,16 +1200,61 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'Ciclos'!$A$3:$A$6</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Ciclos!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>PLANEAR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HACER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VERIFICAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ACTUAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ciclos'!$C$3:$C$6</c:f>
+              <c:f>Ciclos!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBE6-419F-9655-E9627639C423}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -999,12 +1265,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -1014,6 +1284,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -1022,10 +1295,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1043,7 +1317,11 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1055,22 +1333,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>RESULTADOS DE ESTANDARES DEL CICLO PLANEAR</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1078,16 +1355,49 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'PLANEAR'!$A$61:$A$62</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>PLANEAR!$A$61:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1 RECURSOS (10%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 GESTIÓN INTEGRAL DEL SISTEMA GESTIÓN DE LA SEGURIDAD Y SALUD EN EL TRABAJO (15%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLANEAR'!$B$61:$B$62</c:f>
+              <c:f>PLANEAR!$B$61:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.33</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4DE-49A5-A88A-78DDB3E7E70C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -1098,12 +1408,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -1113,6 +1427,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -1121,10 +1438,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1142,7 +1460,11 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1154,22 +1476,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>RESULTADOS DE ÍTEMS DE ESTANDARES DEL CICLO PLANEAR</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1177,16 +1498,115 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'PLANEAR'!$D$3:$D$15</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>PLANEAR!$D$3:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Recursos financieros, técnicos humanos y de otra índole requeridos para coordinar y desarrollar el Sistema de Gestión de la Seguridad y Salud en el Trabajo (SG-SST). (4%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capacitación en el Sistema de Gestión de la Seguridad y Salud en el Trabajo. (6%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Política de Seguridad y Salud en el Trabajo (1%)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Objetivos del Sistema de Gestión de la Seguridad y Salud en el Trabajo SG-SST (1%)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Evaluación inicial del SG – SST (1%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Plan Anual de Trabajo (2%)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Conservación de la documentación (2%)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rendición de cuentas (1%)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Normatividad nacional vigente y aplicable en materia de seguridad y salud en el trabajo. (2%)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Comunicación (1%)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Adquisiciones (1%)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Contratación (2%)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gestión del cambio (1%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLANEAR'!$F$3:$F$15</c:f>
+              <c:f>PLANEAR!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6011-4A2D-B98D-6AFEE81069AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -1197,12 +1617,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -1212,6 +1636,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -1220,10 +1647,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1241,7 +1669,11 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1253,22 +1685,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>RESULTADOS DE ESTANDARES DEL CICLO HACER</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1276,16 +1707,55 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'HACER'!$A$63:$A$65</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>HACER!$A$63:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3 GESTIÓN DE LA SALUD (20%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 GESTIÓN DE PELIGROS Y RIESGOS (30%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 GESTIÓN DE AMENAZAS (10%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HACER'!$B$63:$B$65</c:f>
+              <c:f>HACER!$B$63:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B46-4972-B418-62CC83812855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -1296,12 +1766,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -1311,6 +1785,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -1319,10 +1796,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1340,7 +1818,11 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1352,22 +1834,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>RESULTADOS DE ÍTEMS DE ESTANDARES DEL CICLO HACER</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1375,16 +1856,73 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'HACER'!$D$3:$D$8</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>HACER!$D$3:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Condiciones de salud en el trabajo (9%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Registro, reporte e investigación de las enfermedades laborales, los incidentes y accidentes del trabajo (5%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mecanismos de vigilancia de las condiciones de salud de los trabajadores (6%)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Identificación de peligros, evaluación y valoración de los riesgos (15%)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Medidas de prevención y control para intervenir los peligros /riesgos (15%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Plan de prevención, preparación y respuesta ante emergencias (10%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HACER'!$F$3:$F$8</c:f>
+              <c:f>HACER!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8283-4169-9199-13D0678CC2C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -1395,12 +1933,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -1410,6 +1952,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -1418,10 +1963,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1439,7 +1985,11 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1451,22 +2001,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>RESULTADOS DE ESTANDARES DEL CICLO VERIFICAR</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1474,16 +2023,43 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'VERIFICAR'!$A$44</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>VERIFICAR!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 VERIFICACIÓN  DEL SG-SST (5%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'VERIFICAR'!$B$44</c:f>
+              <c:f>VERIFICAR!$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-227E-420C-BCE4-0FB8877430EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -1494,12 +2070,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -1509,6 +2089,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -1517,10 +2100,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1538,7 +2122,11 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1550,22 +2138,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>RESULTADOS DE ÍTEMS DE ESTANDARES DEL CICLO VERIFICAR</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1573,16 +2160,43 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'VERIFICAR'!$D$3</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>VERIFICAR!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gestión y resultados del SG-SST. (5%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'VERIFICAR'!$F$3</c:f>
+              <c:f>VERIFICAR!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40CC-4E8E-B847-7D9637121FAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -1593,12 +2207,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -1608,6 +2226,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -1616,10 +2237,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1637,7 +2259,11 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1649,22 +2275,21 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>RESULTADOS DE ESTANDARES DEL CICLO ACTUAR</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1672,16 +2297,43 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'ACTUAR'!$A$44</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>ACTUAR!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 MEJORAMIENTO (10%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACTUAR'!$B$44</c:f>
+              <c:f>ACTUAR!$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D908-4958-81BB-B8854685606A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -1692,12 +2344,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -1707,6 +2363,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -1715,10 +2374,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1735,7 +2395,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1750,9 +2410,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="PORCENTAJE DE CALIFICACION POR CICLO"/>
+        <xdr:cNvPr id="2" name="PORCENTAJE DE CALIFICACION POR CICLO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1764,8 +2430,8 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1780,9 +2446,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="chart"/>
+        <xdr:cNvPr id="3" name="chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1794,8 +2466,85 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="chart1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1815,9 +2564,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvPr id="4" name="chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1829,8 +2584,8 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1845,9 +2600,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="chart1"/>
+        <xdr:cNvPr id="5" name="chart1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1859,8 +2620,8 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1880,9 +2641,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvPr id="6" name="chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1894,8 +2661,8 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1910,9 +2677,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="chart1"/>
+        <xdr:cNvPr id="7" name="chart1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1924,8 +2697,8 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1945,9 +2718,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvPr id="8" name="chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1959,8 +2738,8 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1975,9 +2754,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="chart1"/>
+        <xdr:cNvPr id="9" name="chart1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1989,1690 +2774,2038 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="chart1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" customWidth="1"/>
-    <col min="2" max="2" width="8.43" customWidth="1"/>
-    <col min="3" max="3" width="24.29" customWidth="1"/>
-    <col min="4" max="4" width="24.29" customWidth="1"/>
-    <col min="5" max="5" width="10.71" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="10.86" customWidth="1"/>
-    <col min="8" max="8" width="8.43" customWidth="1"/>
-    <col min="9" max="9" width="8.43" customWidth="1"/>
+    <col min="1" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="39" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12" ht="39" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="23.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17" t="s">
+    <row r="7" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" ht="60" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="4">
         <v>0.5</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="35">
         <v>4</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="27">
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="35">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="25" t="s">
+      <c r="L9">
+        <f>8.5*5</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="4">
         <v>0.5</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="25" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="L10">
+        <f>4.5+L9</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="4">
         <v>0.5</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="25" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" ht="60" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="4">
         <v>0.5</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="25" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" ht="60" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="4">
         <v>0.5</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="25" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" ht="60" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="4">
         <v>0.5</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="25" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" ht="60" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="4">
         <v>0.5</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="25" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" ht="60" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="4">
         <v>0.5</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="B17" s="30"/>
-      <c r="C17" s="24" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" ht="60" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="35">
         <v>6</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="27">
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="25" t="s">
+    <row r="18" spans="1:10" ht="60" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="25" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="60" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="B20" s="23" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="60" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="35">
         <v>1</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="27">
+      <c r="G20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="B21" s="30"/>
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="1:10" ht="60" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="35">
         <v>1</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="27">
+      <c r="G21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="B22" s="30"/>
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="1:10" ht="60" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="35">
         <v>1</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="27">
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="B23" s="30"/>
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="1:10" ht="60" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="8">
         <v>2</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="35">
         <v>2</v>
       </c>
-      <c r="G23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="27">
+      <c r="G23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="B24" s="30"/>
-      <c r="C24" s="24" t="s">
+    <row r="24" spans="1:10" ht="60" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="8">
         <v>2</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="35">
         <v>2</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="27">
+      <c r="G24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="B25" s="30"/>
-      <c r="C25" s="24" t="s">
+    <row r="25" spans="1:10" ht="60" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="8">
         <v>1</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="35">
         <v>1</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="27">
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="B26" s="30"/>
-      <c r="C26" s="24" t="s">
+    <row r="26" spans="1:10" ht="60" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="8">
         <v>2</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="35">
         <v>2</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="27">
+      <c r="G26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="B27" s="30"/>
-      <c r="C27" s="24" t="s">
+    <row r="27" spans="1:10" ht="60" customHeight="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="8">
         <v>1</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="35">
         <v>1</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="27">
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="B28" s="30"/>
-      <c r="C28" s="24" t="s">
+    <row r="28" spans="1:10" ht="60" customHeight="1">
+      <c r="A28" s="31"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="8">
         <v>1</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="35">
         <v>1</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="27">
+      <c r="G28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="B29" s="30"/>
-      <c r="C29" s="24" t="s">
+    <row r="29" spans="1:10" ht="60" customHeight="1">
+      <c r="A29" s="31"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="8">
         <v>2</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="35">
         <v>2</v>
       </c>
-      <c r="G29" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="27">
+      <c r="G29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="B30" s="30"/>
-      <c r="C30" s="24" t="s">
+    <row r="30" spans="1:10" ht="60" customHeight="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="8">
         <v>1</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="35">
         <v>1</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="27">
+      <c r="G30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:10" ht="60" customHeight="1">
+      <c r="A31" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="35">
         <v>9</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="27">
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="25" t="s">
+    <row r="32" spans="1:10" ht="60" customHeight="1">
+      <c r="A32" s="31"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="8">
         <v>1</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="25" t="s">
+      <c r="F32" s="33"/>
+      <c r="G32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" ht="60" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="8">
         <v>1</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="30"/>
-    </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="25" t="s">
+      <c r="F33" s="33"/>
+      <c r="G33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" customHeight="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="8">
         <v>1</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="25" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10" ht="60" customHeight="1">
+      <c r="A35" s="31"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="8">
         <v>1</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="30"/>
-    </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="25" t="s">
+      <c r="F35" s="33"/>
+      <c r="G35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="33"/>
+    </row>
+    <row r="36" spans="1:10" ht="60" customHeight="1">
+      <c r="A36" s="31"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="8">
         <v>1</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="30"/>
-    </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="25" t="s">
+      <c r="F36" s="33"/>
+      <c r="G36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" ht="60" customHeight="1">
+      <c r="A37" s="31"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="8">
         <v>1</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="30"/>
-    </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="25" t="s">
+      <c r="F37" s="33"/>
+      <c r="G37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" ht="60" customHeight="1">
+      <c r="A38" s="31"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="25" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" ht="60" customHeight="1">
+      <c r="A39" s="31"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="8">
         <v>1</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="30"/>
-    </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="B40" s="30"/>
-      <c r="C40" s="24" t="s">
+      <c r="F39" s="33"/>
+      <c r="G39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" ht="60" customHeight="1">
+      <c r="A40" s="31"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="8">
         <v>2</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="35">
         <v>5</v>
       </c>
-      <c r="G40" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="27">
+      <c r="G40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="25" t="s">
+    <row r="41" spans="1:10" ht="60" customHeight="1">
+      <c r="A41" s="31"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="8">
         <v>2</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="25" t="s">
+      <c r="F41" s="33"/>
+      <c r="G41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" ht="60" customHeight="1">
+      <c r="A42" s="31"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="8">
         <v>1</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="30"/>
-    </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="B43" s="30"/>
-      <c r="C43" s="24" t="s">
+      <c r="F42" s="33"/>
+      <c r="G42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" ht="60" customHeight="1">
+      <c r="A43" s="31"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="8">
         <v>1</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="35">
         <v>6</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="27">
+      <c r="G43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="25" t="s">
+    <row r="44" spans="1:10" ht="60" customHeight="1">
+      <c r="A44" s="31"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="8">
         <v>1</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="30"/>
-    </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="25" t="s">
+      <c r="F44" s="33"/>
+      <c r="G44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" ht="60" customHeight="1">
+      <c r="A45" s="31"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="8">
         <v>1</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="30"/>
-    </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="25" t="s">
+      <c r="F45" s="33"/>
+      <c r="G45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="1:10" ht="60" customHeight="1">
+      <c r="A46" s="31"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="8">
         <v>1</v>
       </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="25" t="s">
+      <c r="F46" s="33"/>
+      <c r="G46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" spans="1:10" ht="60" customHeight="1">
+      <c r="A47" s="31"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="8">
         <v>1</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="25" t="s">
+      <c r="F47" s="33"/>
+      <c r="G47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="33"/>
+    </row>
+    <row r="48" spans="1:10" ht="60" customHeight="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="8">
         <v>1</v>
       </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="30"/>
-    </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="B49" s="23" t="s">
+      <c r="F48" s="33"/>
+      <c r="G48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="33"/>
+    </row>
+    <row r="49" spans="1:10" ht="60" customHeight="1">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="8">
         <v>4</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="35">
         <v>15</v>
       </c>
-      <c r="G49" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="27">
+      <c r="G49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="35">
         <v>11</v>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="25" t="s">
+    <row r="50" spans="1:10" ht="60" customHeight="1">
+      <c r="A50" s="31"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="8">
         <v>4</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="30"/>
-    </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="25" t="s">
+      <c r="F50" s="33"/>
+      <c r="G50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="33"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" customHeight="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="8">
         <v>3</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="30"/>
-    </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="25" t="s">
+      <c r="F51" s="33"/>
+      <c r="G51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="1:10" ht="60" customHeight="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="8">
         <v>4</v>
       </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="B53" s="30"/>
-      <c r="C53" s="24" t="s">
+      <c r="F52" s="33"/>
+      <c r="G52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="33"/>
+    </row>
+    <row r="53" spans="1:10" ht="60" customHeight="1">
+      <c r="A53" s="31"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="4">
         <v>2.5</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="35">
         <v>15</v>
       </c>
-      <c r="G53" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="27">
+      <c r="G53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="35">
         <v>15</v>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="25" t="s">
+    <row r="54" spans="1:10" ht="60" customHeight="1">
+      <c r="A54" s="31"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E54" s="4">
         <v>2.5</v>
       </c>
-      <c r="F54" s="30"/>
-      <c r="G54" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="25" t="s">
+      <c r="F54" s="33"/>
+      <c r="G54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="33"/>
+    </row>
+    <row r="55" spans="1:10" ht="60" customHeight="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="4">
         <v>2.5</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="25" t="s">
+      <c r="F55" s="33"/>
+      <c r="G55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="1:10" ht="60" customHeight="1">
+      <c r="A56" s="31"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="4">
         <v>2.5</v>
       </c>
-      <c r="F56" s="30"/>
-      <c r="G56" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="25" t="s">
+      <c r="F56" s="33"/>
+      <c r="G56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="1:10" ht="60" customHeight="1">
+      <c r="A57" s="31"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="4">
         <v>2.5</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="30"/>
-    </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="25" t="s">
+      <c r="F57" s="33"/>
+      <c r="G57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="1:10" ht="60" customHeight="1">
+      <c r="A58" s="31"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="4">
         <v>2.5</v>
       </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="B59" s="23" t="s">
+      <c r="F58" s="33"/>
+      <c r="G58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="33"/>
+    </row>
+    <row r="59" spans="1:10" ht="60" customHeight="1">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="8">
         <v>5</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="35">
         <v>10</v>
       </c>
-      <c r="G59" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="27">
+      <c r="G59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="25" t="s">
+    <row r="60" spans="1:10" ht="60" customHeight="1">
+      <c r="A60" s="31"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="8">
         <v>5</v>
       </c>
-      <c r="F60" s="30"/>
-      <c r="G60" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="30"/>
-    </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" s="22" t="s">
+      <c r="F60" s="33"/>
+      <c r="G60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="33"/>
+    </row>
+    <row r="61" spans="1:10" ht="60" customHeight="1">
+      <c r="A61" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="9">
         <v>1.25</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="35">
         <v>5</v>
       </c>
-      <c r="G61" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="27">
+      <c r="G61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="25" t="s">
+    <row r="62" spans="1:10" ht="60" customHeight="1">
+      <c r="A62" s="31"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="9">
         <v>1.25</v>
       </c>
-      <c r="F62" s="30"/>
-      <c r="G62" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="30"/>
-    </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="25" t="s">
+      <c r="F62" s="33"/>
+      <c r="G62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="33"/>
+    </row>
+    <row r="63" spans="1:10" ht="60" customHeight="1">
+      <c r="A63" s="31"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="9">
         <v>1.25</v>
       </c>
-      <c r="F63" s="30"/>
-      <c r="G63" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="30"/>
-    </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="25" t="s">
+      <c r="F63" s="33"/>
+      <c r="G63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="33"/>
+    </row>
+    <row r="64" spans="1:10" ht="60" customHeight="1">
+      <c r="A64" s="31"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="9">
         <v>1.25</v>
       </c>
-      <c r="F64" s="30"/>
-      <c r="G64" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" s="22" t="s">
+      <c r="F64" s="33"/>
+      <c r="G64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="33"/>
+    </row>
+    <row r="65" spans="1:10" ht="60" customHeight="1">
+      <c r="A65" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="4">
         <v>2.5</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="35">
         <v>10</v>
       </c>
-      <c r="G65" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="27">
+      <c r="G65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="25" t="s">
+    <row r="66" spans="1:10" ht="60" customHeight="1">
+      <c r="A66" s="31"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E66" s="4">
         <v>2.5</v>
       </c>
-      <c r="F66" s="30"/>
-      <c r="G66" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="25" t="s">
+      <c r="F66" s="33"/>
+      <c r="G66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="33"/>
+    </row>
+    <row r="67" spans="1:10" ht="60" customHeight="1">
+      <c r="A67" s="31"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E67" s="4">
         <v>2.5</v>
       </c>
-      <c r="F67" s="30"/>
-      <c r="G67" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="25" t="s">
+      <c r="F67" s="33"/>
+      <c r="G67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="33"/>
+    </row>
+    <row r="68" spans="1:10" ht="60" customHeight="1">
+      <c r="A68" s="31"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="26">
+      <c r="E68" s="4">
         <v>2.5</v>
       </c>
-      <c r="F68" s="30"/>
-      <c r="G68" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="30"/>
-    </row>
-    <row r="69" ht="60" customHeight="1">
-      <c r="A69" s="18" t="s">
+      <c r="F68" s="33"/>
+      <c r="G68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="33"/>
+    </row>
+    <row r="69" spans="1:10" ht="60" customHeight="1">
+      <c r="A69" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="18">
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="2">
         <v>100</v>
       </c>
-      <c r="G69" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69" s="18">
+      <c r="G69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="2">
         <f>SUM(J9:J68)</f>
-      </c>
-    </row>
-    <row r="70" ht="40" customHeight="1">
-      <c r="A70" s="19" t="s">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="39.950000000000003" customHeight="1">
+      <c r="A70" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" ht="30" customHeight="1">
-      <c r="A71" s="19" t="s">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="1:10" ht="30" customHeight="1">
+      <c r="A71" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" ht="55.5" customHeight="1">
-      <c r="A72" s="20" t="s">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A72" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="21" t="s">
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J6:J8"/>
+  <mergeCells count="91">
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="C30"/>
+    <mergeCell ref="F30"/>
+    <mergeCell ref="J30"/>
+    <mergeCell ref="A31:A60"/>
+    <mergeCell ref="B31:B48"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="F31:F39"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="J43:J48"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C28"/>
+    <mergeCell ref="F28"/>
+    <mergeCell ref="J28"/>
+    <mergeCell ref="C29"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="J29"/>
+    <mergeCell ref="C26"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="J26"/>
+    <mergeCell ref="C27"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="J27"/>
+    <mergeCell ref="C24"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="J24"/>
+    <mergeCell ref="C25"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="J25"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="J22"/>
+    <mergeCell ref="C23"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="J23"/>
     <mergeCell ref="A9:A30"/>
     <mergeCell ref="B9:B19"/>
     <mergeCell ref="C9:C16"/>
@@ -3689,425 +4822,376 @@
     <mergeCell ref="F21"/>
     <mergeCell ref="J21"/>
     <mergeCell ref="C22"/>
-    <mergeCell ref="F22"/>
-    <mergeCell ref="J22"/>
-    <mergeCell ref="C23"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="J23"/>
-    <mergeCell ref="C24"/>
-    <mergeCell ref="F24"/>
-    <mergeCell ref="J24"/>
-    <mergeCell ref="C25"/>
-    <mergeCell ref="F25"/>
-    <mergeCell ref="J25"/>
-    <mergeCell ref="C26"/>
-    <mergeCell ref="F26"/>
-    <mergeCell ref="J26"/>
-    <mergeCell ref="C27"/>
-    <mergeCell ref="F27"/>
-    <mergeCell ref="J27"/>
-    <mergeCell ref="C28"/>
-    <mergeCell ref="F28"/>
-    <mergeCell ref="J28"/>
-    <mergeCell ref="C29"/>
-    <mergeCell ref="F29"/>
-    <mergeCell ref="J29"/>
-    <mergeCell ref="C30"/>
-    <mergeCell ref="F30"/>
-    <mergeCell ref="J30"/>
-    <mergeCell ref="A31:A60"/>
-    <mergeCell ref="B31:B48"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="F31:F39"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="F43:F48"/>
-    <mergeCell ref="J43:J48"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J6:J8"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="7">
         <v>16.5</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="7">
         <v>53</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="7">
         <v>88.33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="7">
         <v>10</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="12">
         <v>84.5</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="12">
         <v>354.33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="61" max="61" width="0.5" customWidth="1"/>
-    <col min="62" max="62" width="0.5" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="61" max="62" width="0.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.1" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="45">
         <v>5.5</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="45">
         <v>55</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="6">
         <v>3.5</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="6">
         <v>87.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="40" t="s">
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="6">
         <v>33.33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="45">
         <v>11</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="45">
         <v>73.33</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="40" t="s">
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="40" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="40" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="40"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="40" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="40" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="40"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="40" t="s">
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="40"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="40" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="40" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="40"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="40" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="40" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>55</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>73.33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4116,183 +5200,187 @@
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="C5:C15"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="63" max="63" width="0.5" customWidth="1"/>
-    <col min="64" max="64" width="0.5" customWidth="1"/>
-    <col min="65" max="65" width="0.5" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="63" max="65" width="0.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.1" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="45">
         <v>17</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="45">
         <v>85</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="6">
         <v>6</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="6">
         <v>66.67</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="40" t="s">
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="40" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="6">
         <v>6</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="45">
         <v>26</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="45">
         <v>86.67</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="6">
         <v>11</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="6">
         <v>73.33</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="40" t="s">
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="6">
         <v>15</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="45">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="45">
         <v>100</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>85</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>86.67</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="10">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="C8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -4300,175 +5388,178 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="C8"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="44" max="44" width="0.5" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="44" max="44" width="0.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.1" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="45">
         <v>5</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="45">
         <v>100</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C3"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="44" max="44" width="0.5" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="44" max="44" width="0.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.1" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="45">
         <v>10</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="45">
         <v>100</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="6">
         <v>10</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C3"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>